--- a/api/app_api/backlog/login/isRooted_positive.xlsx
+++ b/api/app_api/backlog/login/isRooted_positive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E239A14E-157A-4CF9-A7AE-09D5E69B9F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B1C9B-6588-4279-98C3-BE9C92E06DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -227,10 +227,6 @@
 Input: 'false'</t>
   </si>
   <si>
-    <t>Check isRooted with boolean true as a string within double quotes:
-Input: "true"</t>
-  </si>
-  <si>
     <t>Check isRooted with true value and additional whitespace
 Input: " true "</t>
   </si>
@@ -252,6 +248,18 @@
 3. define request(method -POST)
 4. fill the other required field with valid credentials and goto isRooted option
 5. send the request with false value and additional whitespace
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>Check isRooted with boolean true as a string within double quotes
+Input: "true"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST)
+4. fill the other required field with valid credentials and goto isRooted option
+5. send the request with boolean true as a string within double quotes
 6. review the response status code.</t>
   </si>
 </sst>
@@ -543,11 +551,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -555,49 +559,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -648,6 +611,171 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -681,11 +809,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -693,10 +817,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -757,6 +879,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -774,7 +897,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -783,125 +910,6 @@
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1464,13 +1472,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G7" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="Check isRooted with value true in uppercase_x000a__x000a_Input: TRUE" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST)_x000a_4. fill the other required field with valid credentials and goto isRooted option_x000a_5. send the request with value true in uppercase_x000a_6. review the response status code." dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="should return a successful response with status code 200" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="Check isRooted with value true in uppercase_x000a__x000a_Input: TRUE" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST)_x000a_4. fill the other required field with valid credentials and goto isRooted option_x000a_5. send the request with value true in uppercase_x000a_6. review the response status code." dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="should return a successful response with status code 200" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1680,8 +1688,8 @@
   <dimension ref="A1:Z963"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2206,10 +2214,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>24</v>
@@ -2246,10 +2254,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>24</v>
@@ -2286,10 +2294,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>24</v>
